--- a/AAII_Financials/Yearly/MNKKQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNKKQ_YR_FIN.xlsx
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,129 +662,141 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E7" s="2">
         <v>43826</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43462</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43098</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42734</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42272</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2749400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3162500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3215600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3221600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>829900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3380800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2923100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1650300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1741100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1744400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1564100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>384100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1525800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2793200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>765700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1205400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1421400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1471200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1657500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>445800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1855000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>129900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>884600</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,35 +808,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>290800</v>
+      </c>
+      <c r="E12" s="3">
         <v>349400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>361100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>276900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>66200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>262200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>203300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>140500</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,36 +865,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>836900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1596600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3996900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>38000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>218100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>50200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>42300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>80100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,9 +925,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -914,62 +939,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3462400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4518100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6936500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2728700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1036700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2763500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2569300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1606900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-713000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1355600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3720900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>492900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-206800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>617300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>353800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,143 +1013,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E20" s="3">
         <v>73100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>39100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-62200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-331400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2829700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1239000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1452500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1035400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>323900</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>261100</v>
+      </c>
+      <c r="E22" s="3">
         <v>309000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>370200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>369100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>91300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>384600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>255600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>82600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-960800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1591500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4052000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-298500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>233400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>107300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-584300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-421600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1252700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-121700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-255600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-129300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-12600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1142,63 +1190,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-969700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1007200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3630400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1314300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-176800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>489000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>236600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-969700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1007200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3630400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1314300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-176800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>489000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>233900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1223,36 +1280,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E29" s="3">
         <v>10700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>23400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>820100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>23600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>154700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>88100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-297300</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1277,9 +1340,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1304,63 +1370,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-73100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-39100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>62200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-944600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-996500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3607000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2134400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-153200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>643700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>322000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-319300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1385,68 +1460,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-944600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-996500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3607000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2134400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-153200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>643700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>322000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-319300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E38" s="2">
         <v>43826</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43462</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43098</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42734</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42272</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1458,8 +1542,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1471,35 +1556,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1070600</v>
+      </c>
+      <c r="E41" s="3">
         <v>790900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>348900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1260900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>342000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>280500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>365900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>707800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1524,117 +1613,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>538800</v>
+      </c>
+      <c r="E43" s="3">
         <v>577500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>623300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>599800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>431000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>465800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>489600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>476600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>344900</v>
+      </c>
+      <c r="E44" s="3">
         <v>312100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>322300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>340400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>350700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>335600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>262100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>306400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E45" s="3">
         <v>150200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>132700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>475600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>442800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>424700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>728500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>580200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2304300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1830700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1427200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2285200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1566500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1506600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1846100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2071000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1659,63 +1763,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>891700</v>
+      </c>
+      <c r="E48" s="3">
         <v>980000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>982000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2808800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>881500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>844000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>793000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>886800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>6184500</v>
+      </c>
+      <c r="E49" s="3">
         <v>7018000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8282800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11857700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12498600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12887600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13315700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9484100</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1740,9 +1853,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1767,36 +1883,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>334900</v>
+      </c>
+      <c r="E52" s="3">
         <v>510200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>185300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>913900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>259700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>260500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>449300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>345400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1821,36 +1943,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>9715400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10338900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10877300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15280900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15206300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15498700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16404100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12787300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1862,8 +1990,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1875,170 +2004,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E57" s="3">
         <v>139800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>147500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>113300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>112100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>110100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>116800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>110700</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>3587900</v>
+      </c>
+      <c r="E58" s="3">
         <v>633600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>313900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>271200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>256300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21200</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>437500</v>
+      </c>
+      <c r="E59" s="3">
         <v>653500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>773800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>763400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>923900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>868300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>819900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>788000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4118700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1426900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>943700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1050400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1307200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1234700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>929400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>904800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>4741200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6069200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6420900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5880800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5788700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6474300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3874000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>4577500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2230100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>977100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1287600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3034000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3204600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3635300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3040800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2063,9 +2211,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,9 +2241,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2117,36 +2271,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8696200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8398200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7990000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8758900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10222000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10228000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11092900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7829300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2158,8 +2318,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2184,9 +2345,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2211,9 +2375,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2238,9 +2405,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2265,36 +2435,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-2961500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2016900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1017700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2588600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>529000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>682600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-285800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2319,9 +2495,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2346,9 +2525,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2373,36 +2555,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1019200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1940700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2887300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6522000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4984300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5270700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5311200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4958000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2427,68 +2615,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44190</v>
+      </c>
+      <c r="E80" s="2">
         <v>43826</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43462</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43098</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42734</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42272</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-944600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-996500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3607000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2134400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-153200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>643700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>322000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-319300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2500,35 +2697,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>885200</v>
+      </c>
+      <c r="E83" s="3">
         <v>951100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>852100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>808300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>203200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>834500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>672500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>275900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2553,9 +2754,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2580,9 +2784,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,9 +2814,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2634,9 +2844,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2661,36 +2874,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>498900</v>
+      </c>
+      <c r="E89" s="3">
         <v>742900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>665500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>727300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>195600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1184600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>896400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>373400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2702,35 +2921,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-133000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-127000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-186100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-182900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-148000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-127800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2755,9 +2978,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2782,36 +3008,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-480300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>318400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-108000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2296600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2890800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2823,8 +3055,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -2849,9 +3082,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2876,9 +3112,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2903,9 +3142,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2930,88 +3172,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-185600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-280100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-130200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-53900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1069900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2953900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E102" s="3">
         <v>455100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-911600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>918000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-85400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-341900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>432300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MNKKQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNKKQ_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,141 +662,153 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43826</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43462</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43098</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42734</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42272</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2208800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2749400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3162500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3215600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3221600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>829900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3380800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2923100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1650300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1317100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1544000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1741100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1744400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1564100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>384100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1525800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2793200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>765700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>891700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1205400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1421400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1471200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1657500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>445800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1855000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>129900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>884600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,38 +821,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E12" s="3">
         <v>290800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>349400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>361100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>276900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>66200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>262200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>203300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>140500</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,39 +884,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E14" s="3">
         <v>836900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1596600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3996900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>38000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>218100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>50200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>42300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>80100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,9 +950,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,68 +965,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2839900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3462400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4518100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6936500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2728700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1036700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2763500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2569300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1606900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-631100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-713000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1355600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3720900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>492900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-206800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>617300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>353800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,158 +1046,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E20" s="3">
         <v>13300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>73100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>39100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-62200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E21" s="3">
         <v>185500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-331400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2829700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1239000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1452500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1035400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>323900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E22" s="3">
         <v>261100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>309000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>370200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>369100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>91300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>384600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>255600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>82600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-829800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-960800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1591500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4052000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>61600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-298500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>233400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>107300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-584300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-421600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1252700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-121700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-255600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-129300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-12600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1193,69 +1241,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-723500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-969700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1007200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3630400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1314300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-176800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>489000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>236600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-723500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-969700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1007200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3630400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1314300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-176800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>489000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>233900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1283,39 +1340,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E29" s="3">
         <v>25100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>10700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>23400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>820100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>23600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>154700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>88100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-297300</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,9 +1406,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1373,69 +1439,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-73100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-39100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>62200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-717400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-944600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-996500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3607000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2134400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-153200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>643700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>322000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-319300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1463,74 +1538,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-717400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-944600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-996500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3607000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2134400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-153200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>643700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>322000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-319300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43826</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43462</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43098</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42734</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42272</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1543,8 +1627,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,38 +1642,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1070600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>790900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>348900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1260900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>342000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>280500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>707800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1616,129 +1705,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>439100</v>
+      </c>
+      <c r="E43" s="3">
         <v>538800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>577500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>623300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>599800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>431000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>465800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>489600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>476600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>347200</v>
+      </c>
+      <c r="E44" s="3">
         <v>344900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>312100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>322300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>340400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>350700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>335600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>262100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>306400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>178300</v>
+      </c>
+      <c r="E45" s="3">
         <v>350000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>150200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>132700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>475600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>442800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>424700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>728500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>580200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2309600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2304300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1830700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1427200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2285200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1566500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1506600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1846100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2071000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -1766,69 +1870,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>811000</v>
+      </c>
+      <c r="E48" s="3">
         <v>891700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>980000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>982000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2808800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>881500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>844000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>793000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>886800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>5448400</v>
+      </c>
+      <c r="E49" s="3">
         <v>6184500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7018000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8282800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11857700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12498600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12887600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13315700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9484100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1856,9 +1969,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1886,39 +2002,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>347300</v>
+      </c>
+      <c r="E52" s="3">
         <v>334900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>510200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>185300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>913900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>259700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>260500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>449300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>345400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1946,39 +2068,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>8916300</v>
+      </c>
+      <c r="E54" s="3">
         <v>9715400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10338900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10877300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15280900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15206300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15498700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16404100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12787300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1991,8 +2119,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2005,128 +2134,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E57" s="3">
         <v>93300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>139800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>147500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>113300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>112100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>110100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>116800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>110700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1388900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3587900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>633600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>313900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>271200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>256300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>430300</v>
+      </c>
+      <c r="E59" s="3">
         <v>437500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>653500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>773800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>763400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>923900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>868300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>819900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>788000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1942200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4118700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1426900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>943700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1050400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1307200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1234700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>929400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>904800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2134,59 +2276,65 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>4741200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6069200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6420900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5880800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5788700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6474300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3874000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6660700</v>
+      </c>
+      <c r="E62" s="3">
         <v>4577500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2230100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>977100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1287600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3034000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3204600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3635300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3040800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2214,9 +2362,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2244,9 +2395,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2274,39 +2428,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8602900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8696200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8398200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7990000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8758900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10222000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10228000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11092900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7829300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2319,8 +2479,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2348,9 +2509,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2378,9 +2542,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2408,9 +2575,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2438,39 +2608,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-3678900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2961500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2016900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1017700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2588600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>529000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>682600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-285800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2498,9 +2674,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2528,9 +2707,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2558,39 +2740,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>313400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1019200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1940700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2887300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6522000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4984300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5270700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5311200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4958000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2618,74 +2806,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43826</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43462</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43098</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42734</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42272</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-717400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-944600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-996500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3607000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2134400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-153200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>643700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>322000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-319300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2698,38 +2895,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>675800</v>
+      </c>
+      <c r="E83" s="3">
         <v>885200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>951100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>852100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>808300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>203200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>834500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>672500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>275900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2757,9 +2958,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2787,9 +2991,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2817,9 +3024,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2847,9 +3057,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2877,39 +3090,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>455400</v>
+      </c>
+      <c r="E89" s="3">
         <v>498900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>742900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>665500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>727300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>195600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1184600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>896400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>373400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2922,38 +3141,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-133000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-127000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-186100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-65200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-182900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-148000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2981,9 +3204,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3011,39 +3237,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-480300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>318400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-77200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2296600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2890800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3056,8 +3288,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3085,9 +3318,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3115,9 +3351,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3145,9 +3384,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3175,97 +3417,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-137500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-185600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-280100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1095000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-130200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-53900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1069900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2953900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E102" s="3">
         <v>304400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>455100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-911600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>918000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-85400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-341900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>432300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
